--- a/data_exp2/2_标准化结果.xlsx
+++ b/data_exp2/2_标准化结果.xlsx
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5538461538461539</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5137420039303044</v>
+        <v>0.4862579960696956</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4589235127478715</v>
+        <v>0.5410764872521285</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5853342438454499</v>
+        <v>0.4146657561545502</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5478802235925374</v>
+        <v>0.4521197764074626</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5572519083969467</v>
+        <v>0.4427480916030533</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5207667695431777</v>
+        <v>0.4792332304568223</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6449129719838639</v>
+        <v>0.3550870280161361</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8105718676742962</v>
+        <v>0.1894281323257038</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4880863568617125</v>
+        <v>0.5119136431382875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3613840257797847</v>
+        <v>0.6386159742202153</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8720674199209899</v>
+        <v>0.1279325800790101</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5853269537480016</v>
+        <v>0.4146730462519984</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4918918918918918</v>
+        <v>0.5081081081081081</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5458040107136422</v>
+        <v>0.4541959892863578</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5975314313674941</v>
+        <v>0.402468568632506</v>
       </c>
     </row>
     <row r="3">
@@ -593,52 +593,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4847018150388937</v>
+        <v>0.5152981849611064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4639904669894869</v>
+        <v>0.536009533010513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2634560906515528</v>
+        <v>0.7365439093484472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4168699494576124</v>
+        <v>0.5831300505423876</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2985793965502874</v>
+        <v>0.7014206034497126</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2862595419847327</v>
+        <v>0.7137404580152673</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4049114098827004</v>
+        <v>0.5950885901172996</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5208499323354904</v>
+        <v>0.4791500676645097</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8411908972537422</v>
+        <v>0.1588091027462578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5567609112535835</v>
+        <v>0.4432390887464166</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4753836512858894</v>
+        <v>0.5246163487141106</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7359896336801172</v>
+        <v>0.2640103663198829</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6897926634768765</v>
+        <v>0.3102073365231235</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3621621621621622</v>
+        <v>0.6378378378378378</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1211397751642429</v>
+        <v>0.8788602248357571</v>
       </c>
       <c r="R3" t="n">
-        <v>0.526107463483275</v>
+        <v>0.473892536516725</v>
       </c>
     </row>
     <row r="4">
@@ -651,52 +651,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2228176318063959</v>
+        <v>0.7771823681936042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2133632494302344</v>
+        <v>0.7866367505697657</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1473087818696823</v>
+        <v>0.8526912181303178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2452966116036135</v>
+        <v>0.7547033883963865</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463212081329542</v>
+        <v>0.8536787918670458</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1908396946564885</v>
+        <v>0.8091603053435116</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6529823495513991</v>
+        <v>0.3470176504486009</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4219270521018295</v>
+        <v>0.5780729478981705</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8172689332091089</v>
+        <v>0.1827310667908912</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2802211471487493</v>
+        <v>0.7197788528512508</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1666781917475953</v>
+        <v>0.8333218082524046</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7812522293574337</v>
+        <v>0.2187477706425664</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2878787878787855</v>
+        <v>0.7121212121212145</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2837837837837838</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3621067067574505</v>
+        <v>0.6378932932425495</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2440989312099223</v>
+        <v>0.7559010687900777</v>
       </c>
     </row>
     <row r="5">
@@ -709,52 +709,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2513396715643907</v>
+        <v>0.7486603284356094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4257641447704104</v>
+        <v>0.5742358552295896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3838526912181259</v>
+        <v>0.6161473087818742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3748775285642444</v>
+        <v>0.6251224714357556</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1784850330901865</v>
+        <v>0.8215149669098134</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4160305343511448</v>
+        <v>0.5839694656488552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2362532328226608</v>
+        <v>0.7637467671773391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7435210015693183</v>
+        <v>0.2564789984306817</v>
       </c>
       <c r="K5" t="n">
-        <v>0.923847916438692</v>
+        <v>0.07615208356130795</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5930832298575859</v>
+        <v>0.4069167701424142</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1762029818735587</v>
+        <v>0.8237970181264412</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7551401948337657</v>
+        <v>0.2448598051662343</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4537480063795817</v>
+        <v>0.5462519936204183</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4486486486486485</v>
+        <v>0.5513513513513515</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3217410559218009</v>
+        <v>0.6782589440781992</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5236585798556398</v>
+        <v>0.4763414201443602</v>
       </c>
     </row>
     <row r="6">
@@ -767,52 +767,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6304235090751945</v>
+        <v>0.3695764909248055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5570492771898511</v>
+        <v>0.442950722810149</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3569405099150166</v>
+        <v>0.6430594900849833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4866681024242017</v>
+        <v>0.5133318975757983</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3204516678961567</v>
+        <v>0.6795483321038432</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3740458015267176</v>
+        <v>0.6259541984732824</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3772945678657856</v>
+        <v>0.6227054321342144</v>
       </c>
       <c r="J6" t="n">
-        <v>0.657775703417618</v>
+        <v>0.3422242965823819</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7434373998421937</v>
+        <v>0.2565626001578062</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8565105267692026</v>
+        <v>0.1434894732307975</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6496992651404637</v>
+        <v>0.3503007348595363</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6390452202721922</v>
+        <v>0.3609547797278078</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6363636363636312</v>
+        <v>0.3636363636363688</v>
       </c>
       <c r="P6" t="n">
-        <v>0.381081081081081</v>
+        <v>0.618918918918919</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.58734497849679</v>
+        <v>0.41265502150321</v>
       </c>
     </row>
     <row r="7">
@@ -825,52 +825,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4077787381158168</v>
+        <v>0.5922212618841832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2181522533629495</v>
+        <v>0.7818477466370506</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3541076487252078</v>
+        <v>0.6458923512747922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2566075700425301</v>
+        <v>0.7433924299574699</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1512699114568875</v>
+        <v>0.8487300885431124</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3511450381679388</v>
+        <v>0.6488549618320613</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5284630641269911</v>
+        <v>0.4715369358730089</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6064328149238326</v>
+        <v>0.3935671850761674</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6073694387690571</v>
+        <v>0.3926305612309429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3652125054200106</v>
+        <v>0.6347874945799894</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2135415261224461</v>
+        <v>0.7864584738775539</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2831950409978167</v>
+        <v>0.7168049590021833</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3229665071770309</v>
+        <v>0.6770334928229691</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5297297297297295</v>
+        <v>0.4702702702702704</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8208919429020429</v>
+        <v>0.1791080570979571</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6853040860051988</v>
+        <v>0.3146959139948013</v>
       </c>
     </row>
     <row r="8">
@@ -883,52 +883,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.428694900605013</v>
+        <v>0.5713050993949871</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6839337756823058</v>
+        <v>0.3160662243176942</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2004249291784645</v>
+        <v>0.7995750708215354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.610827435972924</v>
+        <v>0.389172564027076</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2030411534776292</v>
+        <v>0.7969588465223707</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4503816793893127</v>
+        <v>0.5496183206106873</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3498020178696524</v>
+        <v>0.6501979821303476</v>
       </c>
       <c r="J8" t="n">
-        <v>0.756276445394685</v>
+        <v>0.243723554605315</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8434811686124785</v>
+        <v>0.1565188313875215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8455698585852867</v>
+        <v>0.1544301414147134</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4810109861953162</v>
+        <v>0.5189890138046838</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5840993710006991</v>
+        <v>0.4159006289993009</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7551834130781518</v>
+        <v>0.2448165869218481</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5756756756756758</v>
+        <v>0.4243243243243243</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3580822994016378</v>
+        <v>0.6419177005983622</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8538654580289478</v>
+        <v>0.1461345419710522</v>
       </c>
     </row>
     <row r="9">
@@ -941,52 +941,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2197061365600692</v>
+        <v>0.7802938634399309</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2563142936500433</v>
+        <v>0.7436857063499567</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2270891761035657</v>
+        <v>0.7729108238964343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07290549288180052</v>
+        <v>0.9270945071181994</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0267175572519085</v>
+        <v>0.9732824427480915</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5599010621467309</v>
+        <v>0.4400989378532691</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.929440864265457</v>
+        <v>0.07055913573454299</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2374265105691189</v>
+        <v>0.7625734894308811</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6458828884229644</v>
+        <v>0.3541171115770356</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7402911111405326</v>
+        <v>0.2597088888594675</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1858054226475345</v>
+        <v>0.8141945773524655</v>
       </c>
       <c r="P9" t="n">
-        <v>0.381081081081081</v>
+        <v>0.618918918918919</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9559504920784504</v>
+        <v>0.04404950792154959</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3406776950777204</v>
+        <v>0.6593223049222796</v>
       </c>
     </row>
     <row r="10">
@@ -999,52 +999,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2971477960242005</v>
+        <v>0.7028522039757995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2524386288342499</v>
+        <v>0.7475613711657502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4058073654390892</v>
+        <v>0.5941926345609108</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1751509978083046</v>
+        <v>0.8248490021916953</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06930879270388506</v>
+        <v>0.930691207296115</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2251908396946563</v>
+        <v>0.7748091603053436</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7672187430307423</v>
+        <v>0.2327812569692577</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4051851784349399</v>
+        <v>0.5948148215650602</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8133682274201532</v>
+        <v>0.1866317725798467</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3284069568105957</v>
+        <v>0.6715930431894044</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2322729007469256</v>
+        <v>0.7677270992530745</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2434035925030162</v>
+        <v>0.7565964074969839</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6363636363636312</v>
+        <v>0.3636363636363688</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04594594594594593</v>
+        <v>0.9540540540540541</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5416472044950501</v>
+        <v>0.45835279550495</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2608483422408163</v>
+        <v>0.7391516577591837</v>
       </c>
     </row>
     <row r="11">
@@ -1057,52 +1057,52 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1649092480553155</v>
+        <v>0.8350907519446845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2006139995869886</v>
+        <v>0.7993860004130114</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1274787535410703</v>
+        <v>0.8725212464589297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1589153916462233</v>
+        <v>0.8410846083537767</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04487095952420993</v>
+        <v>0.9551290404757901</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06488549618320605</v>
+        <v>0.935114503816794</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8009644829723933</v>
+        <v>0.1990355170276067</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2986891777674454</v>
+        <v>0.7013108222325547</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5332122009979477</v>
+        <v>0.4667877990020523</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2155174659582926</v>
+        <v>0.7844825340417074</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07593957471441497</v>
+        <v>0.9240604252855851</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3150374870311929</v>
+        <v>0.6849625129688072</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2799043062200935</v>
+        <v>0.7200956937799065</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2891891891891891</v>
+        <v>0.7108108108108109</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7189423761328458</v>
+        <v>0.2810576238671541</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3568642308015105</v>
+        <v>0.6431357691984895</v>
       </c>
     </row>
     <row r="12">
@@ -1115,52 +1115,52 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1493517718236819</v>
+        <v>0.850648228176318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04680929934569034</v>
+        <v>0.9531907006543097</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0545325779036759</v>
+        <v>0.9454674220963241</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01880808531532452</v>
+        <v>0.9811919146846755</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02290076335877881</v>
+        <v>0.9770992366412212</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9213134891185141</v>
+        <v>0.07868651088148595</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6575878852548922</v>
+        <v>0.3424121147451078</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9226578236257467</v>
+        <v>0.07734217637425342</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02790998405273697</v>
+        <v>0.9720900159472631</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05747888641352768</v>
+        <v>0.9425211135864723</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9111472416235976</v>
+        <v>0.08885275837640232</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1395534290271121</v>
+        <v>0.8604465709728879</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3972972972972973</v>
+        <v>0.6027027027027027</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9668234686272349</v>
+        <v>0.03317653137276515</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4887647214619038</v>
+        <v>0.5112352785380962</v>
       </c>
     </row>
     <row r="13">
@@ -1173,52 +1173,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06603284356093345</v>
+        <v>0.9339671564390666</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0439380397171274</v>
+        <v>0.9560619602828726</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1430594900849796</v>
+        <v>0.8569405099150204</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07869400304969958</v>
+        <v>0.9213059969503005</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02270720379709856</v>
+        <v>0.9772927962029014</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1450381679389312</v>
+        <v>0.8549618320610688</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8914084966352309</v>
+        <v>0.1085915033647691</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4084144694365859</v>
+        <v>0.5915855305634141</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8645279481355732</v>
+        <v>0.1354720518644267</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07598724084256826</v>
+        <v>0.9240127591574318</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02658168429831212</v>
+        <v>0.9734183157016879</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7658627598486355</v>
+        <v>0.2341372401513645</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1196172248803818</v>
+        <v>0.8803827751196182</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2297297297297297</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7854743083973285</v>
+        <v>0.2145256916026716</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2710183616398544</v>
+        <v>0.7289816383601456</v>
       </c>
     </row>
     <row r="14">
@@ -1231,52 +1231,52 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1695764909248055</v>
+        <v>0.8304235090751945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1140048098955606</v>
+        <v>0.8859951901044394</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2379603399433444</v>
+        <v>0.7620396600566556</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08924234936120462</v>
+        <v>0.9107576506387954</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01883651821487511</v>
+        <v>0.9811634817851249</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08396946564885484</v>
+        <v>0.9160305343511451</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7803804490471846</v>
+        <v>0.2196195509528154</v>
       </c>
       <c r="J14" t="n">
-        <v>0.24313445491366</v>
+        <v>0.7568655450863401</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7722118868508718</v>
+        <v>0.2277881131491281</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1333896801376654</v>
+        <v>0.8666103198623346</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2909934964354924</v>
+        <v>0.7090065035645077</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7276470169510615</v>
+        <v>0.2723529830489385</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3660287081339683</v>
+        <v>0.6339712918660317</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4432432432432433</v>
+        <v>0.5567567567567567</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9017705950082859</v>
+        <v>0.09822940499171409</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4674277279227076</v>
+        <v>0.5325722720772924</v>
       </c>
     </row>
     <row r="15">
@@ -1289,52 +1289,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1662921348314607</v>
+        <v>0.8337078651685393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03268896946152899</v>
+        <v>0.9673110305384711</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1274787535410703</v>
+        <v>0.8725212464589297</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006220718356152665</v>
+        <v>0.9937792816438473</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9778639024322826</v>
+        <v>0.02213609756771744</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6002611782347629</v>
+        <v>0.3997388217652371</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9743530419582745</v>
+        <v>0.02564695804172545</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02131501857830917</v>
+        <v>0.9786849814216908</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9433971606089369</v>
+        <v>0.05660283939106316</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2248803827751178</v>
+        <v>0.7751196172248822</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3702702702702702</v>
+        <v>0.6297297297297298</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8647686096212528</v>
+        <v>0.1352313903787473</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3882373333286434</v>
+        <v>0.6117626666713566</v>
       </c>
     </row>
     <row r="16">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2644770959377701</v>
+        <v>0.7355229040622299</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2510271047444619</v>
+        <v>0.7489728952555381</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1118980169971608</v>
+        <v>0.8881019830028393</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471976676407829</v>
+        <v>0.7528023323592171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04684258632289783</v>
+        <v>0.9531574136771022</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03053435114503818</v>
+        <v>0.9694656488549618</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6052276445862453</v>
+        <v>0.3947723554137547</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03667140231568324</v>
+        <v>0.9633285976843168</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9541289705439771</v>
+        <v>0.04587102945602294</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2340224310865661</v>
+        <v>0.7659775689134339</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2365826960563427</v>
+        <v>0.7634173039436573</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8852009069084337</v>
+        <v>0.1147990930915664</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4808612440191349</v>
+        <v>0.5191387559808651</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2945945945945946</v>
+        <v>0.7054054054054054</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7880994556234602</v>
+        <v>0.2119005443765399</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3041529885456513</v>
+        <v>0.6958470114543487</v>
       </c>
     </row>
     <row r="17">
@@ -1405,52 +1405,52 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3811581676750216</v>
+        <v>0.6188418323249784</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2599194386687427</v>
+        <v>0.7400805613312574</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3767705382436216</v>
+        <v>0.6232294617563784</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1465700683480249</v>
+        <v>0.8534299316519751</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02560517710488783</v>
+        <v>0.9743948228951121</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1374045801526718</v>
+        <v>0.8625954198473281</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6154619082649138</v>
+        <v>0.3845380917350863</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2537027351347</v>
+        <v>0.7462972648653</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8396629190900052</v>
+        <v>0.1603370809099948</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1972242699703593</v>
+        <v>0.8027757300296408</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5344284997628203</v>
+        <v>0.4655715002371797</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6845254878017419</v>
+        <v>0.3154745121982581</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7280701754385986</v>
+        <v>0.2719298245614013</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2837837837837838</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4432094069853349</v>
+        <v>0.556790593014665</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4005452823572607</v>
+        <v>0.5994547176427393</v>
       </c>
     </row>
     <row r="18">
@@ -1463,52 +1463,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.731028522039758</v>
+        <v>0.268971477960242</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6261630677266402</v>
+        <v>0.3738369322733599</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7422096317280434</v>
+        <v>0.2577903682719565</v>
       </c>
       <c r="F18" t="n">
-        <v>0.737292756793295</v>
+        <v>0.2627072432067051</v>
       </c>
       <c r="G18" t="n">
-        <v>0.577801623347902</v>
+        <v>0.4221983766520981</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7251908396946564</v>
+        <v>0.2748091603053436</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2473071321431044</v>
+        <v>0.7526928678568956</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7796239951841971</v>
+        <v>0.2203760048158029</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5754649961060637</v>
+        <v>0.4245350038939363</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6481203637307336</v>
+        <v>0.3518796362692665</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6150250066920603</v>
+        <v>0.3849749933079397</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4065430417212771</v>
+        <v>0.5934569582787229</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4385964912280666</v>
+        <v>0.5614035087719333</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6756756756756755</v>
+        <v>0.3243243243243245</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3189536392728511</v>
+        <v>0.681046360727149</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5199926155981774</v>
+        <v>0.4800073844018226</v>
       </c>
     </row>
     <row r="19">
@@ -1521,52 +1521,52 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2829732065687122</v>
+        <v>0.7170267934312878</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4609504672894694</v>
+        <v>0.5390495327105307</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6841359773371082</v>
+        <v>0.3158640226628918</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3915090691648038</v>
+        <v>0.6084909308351962</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1450971086378762</v>
+        <v>0.8549028913621237</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3969465648854961</v>
+        <v>0.6030534351145039</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4400702412507846</v>
+        <v>0.5599297587492155</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7550670560464732</v>
+        <v>0.2449329439535268</v>
       </c>
       <c r="K19" t="n">
-        <v>0.621201472203684</v>
+        <v>0.378798527796316</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4783298597014882</v>
+        <v>0.5216701402985119</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3284443491932268</v>
+        <v>0.6715556508067732</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3307691161111517</v>
+        <v>0.6692308838888482</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4114832535885134</v>
+        <v>0.5885167464114865</v>
       </c>
       <c r="P19" t="n">
-        <v>0.891891891891892</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2215961306800986</v>
+        <v>0.7784038693199014</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8724219061103766</v>
+        <v>0.1275780938896234</v>
       </c>
     </row>
     <row r="20">
@@ -1579,52 +1579,52 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4902333621434745</v>
+        <v>0.5097666378565255</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3868842895761759</v>
+        <v>0.6131157104238242</v>
       </c>
       <c r="E20" t="n">
-        <v>0.853399433427761</v>
+        <v>0.146600566572239</v>
       </c>
       <c r="F20" t="n">
-        <v>0.295312051453573</v>
+        <v>0.7046879485464269</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05223586628495099</v>
+        <v>0.9477641337150489</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5267175572519082</v>
+        <v>0.4732824427480918</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1661787675672736</v>
+        <v>0.8338212324327264</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2490397910035221</v>
+        <v>0.7509602089964779</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9305361539575446</v>
+        <v>0.06946384604245537</v>
       </c>
       <c r="L20" t="n">
-        <v>0.331865248114007</v>
+        <v>0.668134751885993</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6571422277555258</v>
+        <v>0.3428577722444742</v>
       </c>
       <c r="N20" t="n">
-        <v>0.819438057285365</v>
+        <v>0.180561942714635</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4936204146730424</v>
+        <v>0.5063795853269577</v>
       </c>
       <c r="P20" t="n">
-        <v>0.608108108108108</v>
+        <v>0.391891891891892</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.695848466398499</v>
+        <v>0.304151533601501</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3647910169353767</v>
+        <v>0.6352089830646233</v>
       </c>
     </row>
     <row r="21">
@@ -1637,52 +1637,52 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3256698357821953</v>
+        <v>0.6743301642178047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3132279091792725</v>
+        <v>0.6867720908207275</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5594900849858325</v>
+        <v>0.4405099150141675</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3338204269483376</v>
+        <v>0.6661795730516624</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05140953315194929</v>
+        <v>0.9485904668480507</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3587786259541985</v>
+        <v>0.6412213740458015</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5576496076565987</v>
+        <v>0.4423503923434013</v>
       </c>
       <c r="J21" t="n">
-        <v>0.203591210067109</v>
+        <v>0.796408789932891</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5756799210901008</v>
+        <v>0.4243200789098992</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3348721493184681</v>
+        <v>0.6651278506815319</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3726415898348663</v>
+        <v>0.6273584101651337</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5073883048781824</v>
+        <v>0.4926116951218177</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3548644338118075</v>
+        <v>0.6451355661881925</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7513513513513513</v>
+        <v>0.2486486486486487</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.439319033401626</v>
+        <v>0.560680966598374</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5635520514573589</v>
+        <v>0.4364479485426411</v>
       </c>
     </row>
     <row r="22">
@@ -1695,52 +1695,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6070872947277441</v>
+        <v>0.3929127052722559</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3336775987912855</v>
+        <v>0.6663224012087146</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6749291784702526</v>
+        <v>0.3250708215297474</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4372056059468422</v>
+        <v>0.5627943940531578</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1149365966208731</v>
+        <v>0.8850634033791269</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5419847328244273</v>
+        <v>0.4580152671755727</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5845348122115647</v>
+        <v>0.4154651877884353</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6563183370432141</v>
+        <v>0.3436816629567859</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4181410954112795</v>
+        <v>0.5818589045887205</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4486222129994222</v>
+        <v>0.5513777870005778</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3546838029166179</v>
+        <v>0.6453161970833821</v>
       </c>
       <c r="N22" t="n">
-        <v>0.163794795058603</v>
+        <v>0.8362052049413969</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6889952153109992</v>
+        <v>0.3110047846890008</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7594594594594595</v>
+        <v>0.2405405405405405</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7106301459780693</v>
+        <v>0.2893698540219307</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1753,52 +1753,52 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6817631806395852</v>
+        <v>0.3182368193604149</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3841924836743981</v>
+        <v>0.615807516325602</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6352691218130285</v>
+        <v>0.3647308781869715</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3156921157673084</v>
+        <v>0.6843078842326916</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07860681826704992</v>
+        <v>0.92139318173295</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3473282442748091</v>
+        <v>0.6526717557251909</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5189193740981742</v>
+        <v>0.4810806259018258</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1621044186043881</v>
+        <v>0.8378955813956119</v>
       </c>
       <c r="K23" t="n">
-        <v>0.63529067793505</v>
+        <v>0.3647093220649499</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3666018076932533</v>
+        <v>0.6333981923067468</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3144846585422937</v>
+        <v>0.6855153414577063</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2993253015959868</v>
+        <v>0.7006746984040132</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3859649122806986</v>
+        <v>0.6140350877193014</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8216216216216216</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5809494023635161</v>
+        <v>0.4190505976364839</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8565583247824005</v>
+        <v>0.1434416752175996</v>
       </c>
     </row>
     <row r="24">
@@ -1811,52 +1811,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3899740708729473</v>
+        <v>0.6100259291270527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2031209949343159</v>
+        <v>0.7968790050656841</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6883852691218108</v>
+        <v>0.3116147308781892</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2708575348133149</v>
+        <v>0.729142465186685</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05284778205038099</v>
+        <v>0.9471522179496189</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2671755725190839</v>
+        <v>0.732824427480916</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6544144605913915</v>
+        <v>0.3455855394086085</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2231472867104021</v>
+        <v>0.7768527132895979</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8297065424448327</v>
+        <v>0.1702934575551674</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1569172255650298</v>
+        <v>0.8430827744349703</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2827713103235849</v>
+        <v>0.7172286896764151</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8423573265577916</v>
+        <v>0.1576426734422084</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1778309409888343</v>
+        <v>0.8221690590111657</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6378378378378378</v>
+        <v>0.3621621621621622</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9333505042386907</v>
+        <v>0.06664949576130941</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3740478887025186</v>
+        <v>0.6259521112974814</v>
       </c>
     </row>
     <row r="25">
@@ -1869,52 +1869,52 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3258426966292135</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1767198697862331</v>
+        <v>0.8232801302137669</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7393767705382417</v>
+        <v>0.2606232294617583</v>
       </c>
       <c r="F25" t="n">
-        <v>0.196978173399611</v>
+        <v>0.803021826600389</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03130010779221766</v>
+        <v>0.9686998922077823</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3511450381679388</v>
+        <v>0.6488549618320613</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7603475010293034</v>
+        <v>0.2396524989706967</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3793214410338923</v>
+        <v>0.6206785589661078</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2770283163792091</v>
+        <v>0.7229716836207909</v>
       </c>
       <c r="L25" t="n">
-        <v>0.142682406107384</v>
+        <v>0.857317593892616</v>
       </c>
       <c r="M25" t="n">
-        <v>0.163430069499621</v>
+        <v>0.836569930500379</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3748006379585378</v>
+        <v>0.6251993620414622</v>
       </c>
       <c r="P25" t="n">
-        <v>0.708108108108108</v>
+        <v>0.291891891891892</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9501937073102746</v>
+        <v>0.04980629268972541</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4957804343981492</v>
+        <v>0.5042195656018508</v>
       </c>
     </row>
     <row r="26">
@@ -1927,52 +1927,52 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3265341400172861</v>
+        <v>0.6734658599827139</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2290239351095325</v>
+        <v>0.7709760648904675</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7563739376770521</v>
+        <v>0.2436260623229479</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2584256495682501</v>
+        <v>0.7415743504317499</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04786738596664419</v>
+        <v>0.9521326140333558</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4618320610687021</v>
+        <v>0.5381679389312979</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6435159674254511</v>
+        <v>0.3564840325745489</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2922043286619135</v>
+        <v>0.7077956713380865</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2916494315665943</v>
+        <v>0.7083505684334057</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3031834560264332</v>
+        <v>0.6968165439735667</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2599322898244879</v>
+        <v>0.7400677101755121</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2217735288860058</v>
+        <v>0.7782264711139942</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3429027113237612</v>
+        <v>0.6570972886762387</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6216216216216217</v>
+        <v>0.3783783783783783</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6935542412323469</v>
+        <v>0.3064457587676532</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4819206819981784</v>
+        <v>0.5180793180018216</v>
       </c>
     </row>
     <row r="27">
@@ -1985,52 +1985,52 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.301123595505618</v>
+        <v>0.698876404494382</v>
       </c>
       <c r="D27" t="n">
-        <v>0.250761941775033</v>
+        <v>0.749238058224967</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6798866855524056</v>
+        <v>0.3201133144475943</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2200893831134187</v>
+        <v>0.7799106168865813</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05977929835011429</v>
+        <v>0.9402207016498857</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2938931297709924</v>
+        <v>0.7061068702290075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6383843314418385</v>
+        <v>0.3616156685581615</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3901945344240529</v>
+        <v>0.6098054655759472</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3159411006766495</v>
+        <v>0.6840588993233504</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2186586970001057</v>
+        <v>0.7813413029998943</v>
       </c>
       <c r="M27" t="n">
-        <v>0.221363112655827</v>
+        <v>0.778636887344173</v>
       </c>
       <c r="N27" t="n">
-        <v>0.09324826253065759</v>
+        <v>0.9067517374693425</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2488038277511942</v>
+        <v>0.7511961722488057</v>
       </c>
       <c r="P27" t="n">
-        <v>0.9216216216216216</v>
+        <v>0.0783783783783784</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7628875998999674</v>
+        <v>0.2371124001000326</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7813398981745776</v>
+        <v>0.2186601018254224</v>
       </c>
     </row>
     <row r="28">
@@ -2043,52 +2043,52 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2266205704407952</v>
+        <v>0.7733794295592048</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2348414499539715</v>
+        <v>0.7651585500460285</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4695467422096279</v>
+        <v>0.530453257790372</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1975535185583071</v>
+        <v>0.8024464814416928</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01899482999212515</v>
+        <v>0.9810051700078748</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1259541984732824</v>
+        <v>0.8740458015267176</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4213481693575564</v>
+        <v>0.5786518306424436</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09165283935816443</v>
+        <v>0.9083471606418356</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7403267035957294</v>
+        <v>0.2596732964042707</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1510559451251249</v>
+        <v>0.8489440548748751</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2678203520768446</v>
+        <v>0.7321796479231554</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5927198963280099</v>
+        <v>0.4072801036719901</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1443381180223355</v>
+        <v>0.8556618819776645</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7290262684786816</v>
+        <v>0.2709737315213185</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6115542578643719</v>
+        <v>0.3884457421356282</v>
       </c>
     </row>
     <row r="29">
@@ -2101,52 +2101,52 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8063958513396715</v>
+        <v>0.1936041486603284</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5580135061695924</v>
+        <v>0.4419864938304077</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8229461756373924</v>
+        <v>0.1770538243626075</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7430530566556297</v>
+        <v>0.2569469433443703</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5330720087526818</v>
+        <v>0.4669279912473183</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8549618320610685</v>
+        <v>0.1450381679389315</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4104636578717997</v>
+        <v>0.5895363421282003</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5487231852734463</v>
+        <v>0.4512768147265537</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9084445880897883</v>
+        <v>0.09155541191021166</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8808223008044506</v>
+        <v>0.1191776991955495</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5137283875414221</v>
+        <v>0.4862716124585778</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9627363440965446</v>
+        <v>0.03726365590345534</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5598086124401868</v>
+        <v>0.4401913875598132</v>
       </c>
       <c r="P29" t="n">
-        <v>0.5351351351351351</v>
+        <v>0.4648648648648649</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4306547399303206</v>
+        <v>0.5693452600696794</v>
       </c>
       <c r="R29" t="n">
-        <v>0.5247549919165637</v>
+        <v>0.4752450080834362</v>
       </c>
     </row>
     <row r="30">
@@ -2159,52 +2159,52 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2646499567847883</v>
+        <v>0.7353500432152118</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1006154191463199</v>
+        <v>0.8993845808536802</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4369688385269081</v>
+        <v>0.5630311614730918</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2920659312239709</v>
+        <v>0.7079340687760292</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1142026576478567</v>
+        <v>0.8857973423521434</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4045801526717558</v>
+        <v>0.5954198473282443</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7830165382043341</v>
+        <v>0.2169834617956658</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5468469456226915</v>
+        <v>0.4531530543773085</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8011767052664369</v>
+        <v>0.1988232947335631</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2570303026017557</v>
+        <v>0.7429696973982443</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1870701961666154</v>
+        <v>0.8129298038333845</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9211733909499374</v>
+        <v>0.07882660905006263</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2543859649122787</v>
+        <v>0.7456140350877213</v>
       </c>
       <c r="P30" t="n">
-        <v>0.4081081081081081</v>
+        <v>0.5918918918918918</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8161782889506159</v>
+        <v>0.183821711049384</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2781219935191059</v>
+        <v>0.7218780064808941</v>
       </c>
     </row>
     <row r="31">
@@ -2217,52 +2217,52 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5403630077787381</v>
+        <v>0.4596369922212619</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2571553155934843</v>
+        <v>0.7428446844065157</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7691218130311599</v>
+        <v>0.2308781869688402</v>
       </c>
       <c r="F31" t="n">
-        <v>0.443079751863894</v>
+        <v>0.5569202481361061</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1650647161710462</v>
+        <v>0.8349352838289538</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6374045801526715</v>
+        <v>0.3625954198473285</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7261265284654558</v>
+        <v>0.2738734715345442</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5025476056985066</v>
+        <v>0.4974523943014933</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6815674858569951</v>
+        <v>0.3184325141430049</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7811977079900939</v>
+        <v>0.2188022920099061</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2114832599751219</v>
+        <v>0.788516740024878</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6681007288650372</v>
+        <v>0.3318992711349628</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2990430622009545</v>
+        <v>0.7009569377990456</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5864864864864866</v>
+        <v>0.4135135135135134</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4895733906267469</v>
+        <v>0.5104266093732531</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5415716407380148</v>
+        <v>0.4584283592619852</v>
       </c>
     </row>
     <row r="32">
@@ -2275,52 +2275,52 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4449438202247191</v>
+        <v>0.5550561797752809</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1861559217185346</v>
+        <v>0.8138440782814654</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4922096317280423</v>
+        <v>0.5077903682719577</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2293066063168342</v>
+        <v>0.7706933936831658</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05569365511327404</v>
+        <v>0.9443063448867259</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4541984732824427</v>
+        <v>0.5458015267175573</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7846527705971569</v>
+        <v>0.2153472294028431</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4567081301105433</v>
+        <v>0.5432918698894567</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6806078835668808</v>
+        <v>0.3193921164331192</v>
       </c>
       <c r="L32" t="n">
-        <v>0.329776539239812</v>
+        <v>0.670223460760188</v>
       </c>
       <c r="M32" t="n">
-        <v>0.07877899386706151</v>
+        <v>0.9212210061329384</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8221701930306519</v>
+        <v>0.1778298069693482</v>
       </c>
       <c r="O32" t="n">
-        <v>0.4872408293460885</v>
+        <v>0.5127591706539115</v>
       </c>
       <c r="P32" t="n">
-        <v>0.4513513513513514</v>
+        <v>0.5486486486486486</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5449019367466477</v>
+        <v>0.4550980632533523</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4000533279605846</v>
+        <v>0.5999466720394154</v>
       </c>
     </row>
     <row r="33">
@@ -2333,52 +2333,52 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5664649956784789</v>
+        <v>0.4335350043215212</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1439842959240167</v>
+        <v>0.8560157040759835</v>
       </c>
       <c r="E33" t="n">
-        <v>0.706798866855522</v>
+        <v>0.293201133144478</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1764458486985477</v>
+        <v>0.8235541513014524</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0436439416015787</v>
+        <v>0.9563560583984213</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4694656488549618</v>
+        <v>0.5305343511450382</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7778890367438052</v>
+        <v>0.2221109632561949</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2668482717593604</v>
+        <v>0.7331517282406396</v>
       </c>
       <c r="K33" t="n">
-        <v>0.716196158830164</v>
+        <v>0.283803841169836</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8644474888146177</v>
+        <v>0.1355525111853823</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08523901807692884</v>
+        <v>0.9147609819230712</v>
       </c>
       <c r="N33" t="n">
-        <v>0.9226122206392954</v>
+        <v>0.07738777936070473</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3301435406698538</v>
+        <v>0.6698564593301461</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7054054054054054</v>
+        <v>0.2945945945945946</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7126743275963502</v>
+        <v>0.2873256724036498</v>
       </c>
       <c r="R33" t="n">
-        <v>0.6803863816430578</v>
+        <v>0.3196136183569422</v>
       </c>
     </row>
     <row r="34">
@@ -2391,52 +2391,52 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3707865168539326</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2229921471584842</v>
+        <v>0.7770078528415159</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5665722379603368</v>
+        <v>0.4334277620396632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3781219978158332</v>
+        <v>0.6218780021841668</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06181809203996723</v>
+        <v>0.9381819079600328</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4961832061068699</v>
+        <v>0.5038167938931301</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7053739841995474</v>
+        <v>0.2946260158004526</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4865670026113366</v>
+        <v>0.5134329973886634</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7179515344372784</v>
+        <v>0.2820484655627216</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6241225129637963</v>
+        <v>0.3758774870362037</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1519125161937158</v>
+        <v>0.8480874838062842</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9142579059854599</v>
+        <v>0.08574209401454028</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2200956937799027</v>
+        <v>0.7799043062200973</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8324324324324324</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6351686986645906</v>
+        <v>0.3648313013354094</v>
       </c>
       <c r="R34" t="n">
-        <v>0.7550762425131416</v>
+        <v>0.2449237574868584</v>
       </c>
     </row>
     <row r="35">
@@ -2449,52 +2449,52 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2817631806395851</v>
+        <v>0.7182368193604148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.159106620422959</v>
+        <v>0.840893379577041</v>
       </c>
       <c r="E35" t="n">
-        <v>0.665722379603397</v>
+        <v>0.334277620396603</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3298102940331396</v>
+        <v>0.6701897059668604</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1306043647138063</v>
+        <v>0.8693956352861937</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5419847328244273</v>
+        <v>0.4580152671755727</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7276578653292871</v>
+        <v>0.2723421346707128</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3028585807673154</v>
+        <v>0.6971414192326846</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7826850757261169</v>
+        <v>0.2173149242738831</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5752705770369149</v>
+        <v>0.4247294229630851</v>
       </c>
       <c r="M35" t="n">
-        <v>0.204688883882613</v>
+        <v>0.795311116117387</v>
       </c>
       <c r="N35" t="n">
-        <v>0.9341867416218376</v>
+        <v>0.06581325837816236</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3269537480063771</v>
+        <v>0.673046251993623</v>
       </c>
       <c r="P35" t="n">
-        <v>0.5702702702702702</v>
+        <v>0.4297297297297298</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7179898748382362</v>
+        <v>0.2820101251617638</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3993328373230083</v>
+        <v>0.6006671626769917</v>
       </c>
     </row>
     <row r="36">
@@ -2507,52 +2507,52 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2788245462402766</v>
+        <v>0.7211754537597235</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3136082439435037</v>
+        <v>0.6863917560564964</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7280453257790348</v>
+        <v>0.2719546742209651</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4733082878618602</v>
+        <v>0.5266917121381398</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07654994774987424</v>
+        <v>0.9234500522501258</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6564885496183206</v>
+        <v>0.3435114503816794</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5287936574339358</v>
+        <v>0.4712063425660642</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2851887386366976</v>
+        <v>0.7148112613633023</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7517730343802534</v>
+        <v>0.2482269656197467</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8541084317041215</v>
+        <v>0.1458915682958785</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3598292380184905</v>
+        <v>0.6401707619815096</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8763804431517793</v>
+        <v>0.1236195568482207</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2751196172248863</v>
+        <v>0.7248803827751137</v>
       </c>
       <c r="P36" t="n">
-        <v>0.5756756756756758</v>
+        <v>0.4243243243243243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7012480285361679</v>
+        <v>0.2987519714638321</v>
       </c>
       <c r="R36" t="n">
-        <v>0.361189610515717</v>
+        <v>0.6388103894842829</v>
       </c>
     </row>
     <row r="37">
@@ -2565,52 +2565,52 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7956784788245462</v>
+        <v>0.2043215211754538</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11685196379963</v>
+        <v>0.88314803620037</v>
       </c>
       <c r="E37" t="n">
-        <v>0.589943342776201</v>
+        <v>0.410056657223799</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1834041466530651</v>
+        <v>0.8165958533469349</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07617077708947448</v>
+        <v>0.9238292229105254</v>
       </c>
       <c r="H37" t="n">
-        <v>0.381679389312977</v>
+        <v>0.618320610687023</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8193359605105461</v>
+        <v>0.1806640394894539</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3328820196198713</v>
+        <v>0.6671179803801287</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6496715941239379</v>
+        <v>0.3503284058760621</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6195912792360507</v>
+        <v>0.3804087207639493</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2343123952166041</v>
+        <v>0.7656876047833959</v>
       </c>
       <c r="N37" t="n">
-        <v>0.9036468324062773</v>
+        <v>0.09635316759372273</v>
       </c>
       <c r="O37" t="n">
-        <v>0.285486443381186</v>
+        <v>0.714513556618814</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5918918918918918</v>
+        <v>0.4081081081081081</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8615356892399137</v>
+        <v>0.1384643107600862</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4905025172993004</v>
+        <v>0.5094974827006996</v>
       </c>
     </row>
     <row r="38">
@@ -2623,52 +2623,52 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2826274848746759</v>
+        <v>0.7173725151253241</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1241131436998484</v>
+        <v>0.8758868563001517</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5219546742209604</v>
+        <v>0.4780453257790396</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1970704632281645</v>
+        <v>0.8029295367718355</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02918503938631259</v>
+        <v>0.9708149606136873</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4427480916030533</v>
+        <v>0.5572519083969467</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8404816611766296</v>
+        <v>0.1595183388233704</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3159294599893556</v>
+        <v>0.6840705400106444</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8689656410894989</v>
+        <v>0.1310343589105012</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2181682292743042</v>
+        <v>0.7818317707256958</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05527350121762939</v>
+        <v>0.9447264987823706</v>
       </c>
       <c r="N38" t="n">
-        <v>0.9576251598748423</v>
+        <v>0.04237484012515774</v>
       </c>
       <c r="O38" t="n">
-        <v>0.4035087719298294</v>
+        <v>0.5964912280701706</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2027027027027027</v>
+        <v>0.7972972972972973</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7989588479359491</v>
+        <v>0.2010411520640509</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1884118819831958</v>
+        <v>0.8115881180168042</v>
       </c>
     </row>
     <row r="39">
@@ -2681,52 +2681,52 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.186171132238548</v>
+        <v>0.813828867761452</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1697720643044307</v>
+        <v>0.8302279356955694</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3711048158640182</v>
+        <v>0.6288951841359819</v>
       </c>
       <c r="F39" t="n">
-        <v>0.221812463369655</v>
+        <v>0.778187536630345</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04302352088087125</v>
+        <v>0.9569764791191288</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4503816793893127</v>
+        <v>0.5496183206106873</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7623766096600479</v>
+        <v>0.2376233903399521</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2480620313233796</v>
+        <v>0.7519379686766203</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7353446274346679</v>
+        <v>0.2646553725653322</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1751663051362196</v>
+        <v>0.8248336948637803</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09494456999521715</v>
+        <v>0.9050554300047828</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8931379953205489</v>
+        <v>0.106862004679451</v>
       </c>
       <c r="O39" t="n">
-        <v>0.4681020733652275</v>
+        <v>0.5318979266347724</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7672780781921292</v>
+        <v>0.2327219218078708</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2739,52 +2739,52 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3898012100259291</v>
+        <v>0.6101987899740708</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2611970420668998</v>
+        <v>0.7388029579331002</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4015269957444882</v>
+        <v>0.5984730042555119</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05825623692235858</v>
+        <v>0.9417437630776415</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7099236641221335</v>
+        <v>0.2900763358778665</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7414147623640867</v>
+        <v>0.2585852376359134</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6973428550803966</v>
+        <v>0.3026571449196033</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4548236299262268</v>
+        <v>0.5451763700737732</v>
       </c>
       <c r="L40" t="n">
-        <v>0.774467661631439</v>
+        <v>0.2255323383685611</v>
       </c>
       <c r="M40" t="n">
-        <v>0.08440196870647078</v>
+        <v>0.9155980312935292</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5862761686656446</v>
+        <v>0.4137238313343555</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4712918660287043</v>
+        <v>0.5287081339712957</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7864864864864864</v>
+        <v>0.2135135135135136</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4528010641681287</v>
+        <v>0.5471989358318714</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8064700008733567</v>
+        <v>0.1935299991266433</v>
       </c>
     </row>
     <row r="41">
@@ -2797,52 +2797,52 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3135695764909248</v>
+        <v>0.6864304235090752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08663142052623872</v>
+        <v>0.9133685794737614</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8087818696883838</v>
+        <v>0.1912181303116161</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1703380509834203</v>
+        <v>0.8296619490165797</v>
       </c>
       <c r="G41" t="n">
-        <v>0.037204263076074</v>
+        <v>0.9627957369239259</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4160305343511448</v>
+        <v>0.5839694656488552</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9839832066004632</v>
+        <v>0.01601679339953685</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6073353620134387</v>
+        <v>0.3926646379865613</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7979189331041993</v>
+        <v>0.2020810668958007</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2690474500797184</v>
+        <v>0.7309525499202816</v>
       </c>
       <c r="M41" t="n">
-        <v>0.04766393732198738</v>
+        <v>0.9523360626780126</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8300489727871209</v>
+        <v>0.1699510272128791</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5677830940988791</v>
+        <v>0.432216905901121</v>
       </c>
       <c r="P41" t="n">
-        <v>0.527027027027027</v>
+        <v>0.4729729729729731</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6683532154729966</v>
+        <v>0.3316467845270034</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6086198603567586</v>
+        <v>0.3913801396432414</v>
       </c>
     </row>
     <row r="42">
@@ -2855,52 +2855,52 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.128781331028522</v>
+        <v>0.8712186689714779</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01524419232832641</v>
+        <v>0.9847558076716736</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4121813031161431</v>
+        <v>0.5878186968838569</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1076276324622909</v>
+        <v>0.8923723675377091</v>
       </c>
       <c r="G42" t="n">
-        <v>0.006944337143418073</v>
+        <v>0.9930556628565819</v>
       </c>
       <c r="H42" t="n">
-        <v>0.217557251908397</v>
+        <v>0.7824427480916031</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.377423274691742</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.06023021770119694</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9676395161481302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.9490965066663059</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.02664846546349748</v>
+      </c>
+      <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.622576725308258</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.939769782298803</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.0323604838518698</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.05090349333369418</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.9733515345365026</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
-        <v>0.4054054054054053</v>
+        <v>0.5945945945945947</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9169875799693017</v>
+        <v>0.08301242003069831</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5311303293722689</v>
+        <v>0.468869670627731</v>
       </c>
     </row>
     <row r="43">
@@ -2913,52 +2913,52 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.248228176318064</v>
+        <v>0.7517718236819361</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1709773505291073</v>
+        <v>0.8290226494708928</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2556657223796052</v>
+        <v>0.7443342776203948</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1869570531274104</v>
+        <v>0.8130429468725896</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04346538219923776</v>
+        <v>0.9565346178007621</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1450381679389312</v>
+        <v>0.8549618320610688</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8555482801738952</v>
+        <v>0.1444517198261048</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3168039765423768</v>
+        <v>0.6831960234576232</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7129230575515318</v>
+        <v>0.2870769424484681</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1363449582194227</v>
+        <v>0.8636550417805773</v>
       </c>
       <c r="M43" t="n">
-        <v>0.07595871944009649</v>
+        <v>0.9240412805599035</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4431762977299341</v>
+        <v>0.5568237022700659</v>
       </c>
       <c r="O43" t="n">
-        <v>0.04784688995215283</v>
+        <v>0.9521531100478472</v>
       </c>
       <c r="P43" t="n">
-        <v>0.6432432432432433</v>
+        <v>0.3567567567567567</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8344017166999316</v>
+        <v>0.1655982833000684</v>
       </c>
       <c r="R43" t="n">
-        <v>0.809093998686183</v>
+        <v>0.1909060013138169</v>
       </c>
     </row>
     <row r="44">
@@ -2971,52 +2971,52 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.08435609334485739</v>
+        <v>0.9156439066551426</v>
       </c>
       <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5488668555240762</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8915877327077049</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9940474684577491</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.7748091603053436</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03807808442131416</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.434193480143345</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.01010728592351253</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9843925598784544</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.4511331444759238</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.1084122672922951</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.005952531542250896</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.2251908396946563</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.9619219155786858</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.565806519856655</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.9898927140764875</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.01560744012154561</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
+        <v>0.8947368421052639</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.5081081081081081</v>
+      </c>
+      <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.105263157894736</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.4918918918918918</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
       <c r="R44" t="n">
-        <v>0.4477584389014996</v>
+        <v>0.5522415610985003</v>
       </c>
     </row>
     <row r="45">
@@ -3029,52 +3029,52 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.2314606741573034</v>
+        <v>0.7685393258426966</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04663332755688751</v>
+        <v>0.9533666724431126</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6366855524079293</v>
+        <v>0.3633144475920706</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1452190640607966</v>
+        <v>0.8547809359392033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01802807662769007</v>
+        <v>0.9819719233723099</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3244274809160306</v>
+        <v>0.6755725190839694</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9735145299476926</v>
+        <v>0.02648547005230747</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3652053843024865</v>
+        <v>0.6347946156975135</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04235433949124275</v>
+        <v>0.9576456605087572</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02590000313860362</v>
+        <v>0.9740999968613964</v>
       </c>
       <c r="N45" t="n">
-        <v>0.9478072151271572</v>
+        <v>0.05219278487284292</v>
       </c>
       <c r="O45" t="n">
-        <v>0.3763955342902762</v>
+        <v>0.6236044657097238</v>
       </c>
       <c r="P45" t="n">
-        <v>0.2756756756756756</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7674420851551863</v>
+        <v>0.2325579148448137</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3218055945775259</v>
+        <v>0.6781944054224741</v>
       </c>
     </row>
     <row r="46">
@@ -3087,52 +3087,52 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9374243733794295</v>
+        <v>0.06257562662057044</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2691218130311634</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.7308781869688366</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
       <c r="K46" t="n">
-        <v>0.732010412307677</v>
+        <v>0.267989587692323</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7225100212285044</v>
+        <v>0.2774899787714957</v>
       </c>
       <c r="N46" t="n">
-        <v>0.566702920137423</v>
+        <v>0.4332970798625772</v>
       </c>
       <c r="O46" t="n">
-        <v>0.9194577352472015</v>
+        <v>0.08054226475279846</v>
       </c>
       <c r="P46" t="n">
-        <v>0.564864864864865</v>
+        <v>0.4351351351351351</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.07531849501005027</v>
+        <v>0.9246815049899497</v>
       </c>
       <c r="R46" t="n">
-        <v>0.665080434154827</v>
+        <v>0.334919565845173</v>
       </c>
     </row>
     <row r="47">
@@ -3145,52 +3145,52 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5282627484874676</v>
+        <v>0.4717372515125324</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4620700442715022</v>
+        <v>0.5379299557284978</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4879603399433391</v>
+        <v>0.5120396600566609</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3557117134962452</v>
+        <v>0.6442882865037548</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1332003764605222</v>
+        <v>0.8667996235394777</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4389312977099236</v>
+        <v>0.5610687022900763</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2673724486785555</v>
+        <v>0.7326275513214445</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6418175320592087</v>
+        <v>0.3581824679407913</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6590150769482661</v>
+        <v>0.3409849230517338</v>
       </c>
       <c r="L47" t="n">
-        <v>0.5735336791297159</v>
+        <v>0.4264663208702842</v>
       </c>
       <c r="M47" t="n">
-        <v>0.5686861881851039</v>
+        <v>0.4313138118148961</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5234692059981025</v>
+        <v>0.4765307940018975</v>
       </c>
       <c r="O47" t="n">
-        <v>0.2982456140350934</v>
+        <v>0.7017543859649066</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.271628507010964</v>
+        <v>0.728371492989036</v>
       </c>
       <c r="R47" t="n">
-        <v>0.9368576212423071</v>
+        <v>0.06314237875769295</v>
       </c>
     </row>
     <row r="48">
@@ -3203,52 +3203,52 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9258426966292135</v>
+        <v>0.07415730337078652</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3107798389362627</v>
+        <v>0.6892201610637374</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2514164305948955</v>
+        <v>0.7485835694051045</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2721472660469868</v>
+        <v>0.7278527339530132</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1447187659997624</v>
+        <v>0.8552812340002376</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2709923664122136</v>
+        <v>0.7290076335877864</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6264758611531361</v>
+        <v>0.3735241388468639</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4222234341241384</v>
+        <v>0.5777765658758616</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9198198922469444</v>
+        <v>0.08018010775305558</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3845687943397423</v>
+        <v>0.6154312056602577</v>
       </c>
       <c r="M48" t="n">
-        <v>0.2664891132659163</v>
+        <v>0.7335108867340837</v>
       </c>
       <c r="N48" t="n">
-        <v>0.7839789100644068</v>
+        <v>0.2160210899355932</v>
       </c>
       <c r="O48" t="n">
-        <v>0.5574162679425873</v>
+        <v>0.4425837320574127</v>
       </c>
       <c r="P48" t="n">
-        <v>0.6702702702702703</v>
+        <v>0.3297297297297297</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6679872645632589</v>
+        <v>0.3320127354367411</v>
       </c>
       <c r="R48" t="n">
-        <v>0.679237076977428</v>
+        <v>0.320762923022572</v>
       </c>
     </row>
     <row r="49">
@@ -3261,52 +3261,52 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8006914433880726</v>
+        <v>0.1993085566119274</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3707977360974922</v>
+        <v>0.6292022639025079</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6182719546742182</v>
+        <v>0.3817280453257818</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4083003118435418</v>
+        <v>0.5916996881564582</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1742004783109717</v>
+        <v>0.8257995216890284</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5343511450381678</v>
+        <v>0.4656488549618321</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6127793242858817</v>
+        <v>0.3872206757141183</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3444427249664812</v>
+        <v>0.6555572750335189</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9607891356154735</v>
+        <v>0.03921086438452645</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5122687721455634</v>
+        <v>0.4877312278544367</v>
       </c>
       <c r="M49" t="n">
-        <v>0.4396831760098137</v>
+        <v>0.5603168239901863</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9642079576771511</v>
+        <v>0.035792042322849</v>
       </c>
       <c r="O49" t="n">
-        <v>0.9218500797448171</v>
+        <v>0.07814992025518282</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1135135135135135</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3653593744442568</v>
+        <v>0.6346406255557432</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2944615361447449</v>
+        <v>0.7055384638552551</v>
       </c>
     </row>
     <row r="50">
@@ -3319,52 +3319,52 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5407087294727744</v>
+        <v>0.4592912705272256</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3510605045649546</v>
+        <v>0.6489394954350454</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6005665722379575</v>
+        <v>0.3994334277620425</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2963455591999685</v>
+        <v>0.7036544408000315</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0912068807390139</v>
+        <v>0.908793119260986</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4847328244274809</v>
+        <v>0.5152671755725191</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6550713525850537</v>
+        <v>0.3449286474149463</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5916690208362262</v>
+        <v>0.4083309791637738</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7420854185378889</v>
+        <v>0.257914581462111</v>
       </c>
       <c r="L50" t="n">
-        <v>0.471321121215748</v>
+        <v>0.5286788787842521</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2262131890448254</v>
+        <v>0.7737868109551745</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7612710571367427</v>
+        <v>0.2387289428632574</v>
       </c>
       <c r="O50" t="n">
-        <v>0.5893141945773477</v>
+        <v>0.4106858054226523</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7216216216216217</v>
+        <v>0.2783783783783783</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.7410978696449276</v>
+        <v>0.2589021303550723</v>
       </c>
       <c r="R50" t="n">
-        <v>0.7496268931794164</v>
+        <v>0.2503731068205836</v>
       </c>
     </row>
     <row r="51">
@@ -3377,52 +3377,52 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.4428694900605013</v>
+        <v>0.5571305099394988</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4165209386340571</v>
+        <v>0.5834790613659429</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5056657223795998</v>
+        <v>0.4943342776204002</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3133918171761828</v>
+        <v>0.6866081828238173</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07494471353756096</v>
+        <v>0.9250552864624391</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4160305343511448</v>
+        <v>0.5839694656488552</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4509470212397004</v>
+        <v>0.5490529787602996</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6258506817201877</v>
+        <v>0.3741493182798124</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6813540504009062</v>
+        <v>0.3186459495990938</v>
       </c>
       <c r="L51" t="n">
-        <v>0.4665566774390157</v>
+        <v>0.5334433225609844</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3746227747855518</v>
+        <v>0.6253772252144482</v>
       </c>
       <c r="N51" t="n">
-        <v>0.3259305823766259</v>
+        <v>0.6740694176233741</v>
       </c>
       <c r="O51" t="n">
-        <v>0.3189792663476848</v>
+        <v>0.6810207336523152</v>
       </c>
       <c r="P51" t="n">
-        <v>0.9027027027027028</v>
+        <v>0.09729729729729716</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7328659612541112</v>
+        <v>0.2671340387458889</v>
       </c>
       <c r="R51" t="n">
-        <v>0.8843576056154319</v>
+        <v>0.1156423943845681</v>
       </c>
     </row>
     <row r="52">
@@ -3435,52 +3435,52 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.7004321521175454</v>
+        <v>0.2995678478824546</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3573547770715991</v>
+        <v>0.642645222928401</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6543909348441901</v>
+        <v>0.3456090651558099</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3967673961158354</v>
+        <v>0.6032326038841646</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07380939890141638</v>
+        <v>0.9261906010985835</v>
       </c>
       <c r="H52" t="n">
-        <v>0.564885496183206</v>
+        <v>0.435114503816794</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6244892899735466</v>
+        <v>0.3755107100264535</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6846964995255522</v>
+        <v>0.3153035004744478</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8662552457299634</v>
+        <v>0.1337447542700367</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5498836060685698</v>
+        <v>0.4501163939314303</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3425692457823346</v>
+        <v>0.6574307542176654</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8515489152438999</v>
+        <v>0.1484510847561003</v>
       </c>
       <c r="O52" t="n">
-        <v>0.6889952153109992</v>
+        <v>0.3110047846890008</v>
       </c>
       <c r="P52" t="n">
-        <v>0.6297297297297296</v>
+        <v>0.3702702702702704</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7991077391498114</v>
+        <v>0.2008922608501886</v>
       </c>
       <c r="R52" t="n">
-        <v>0.5410084233466202</v>
+        <v>0.4589915766533798</v>
       </c>
     </row>
     <row r="53">
@@ -3493,52 +3493,52 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.525324114088159</v>
+        <v>0.474675885911841</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2699634905410477</v>
+        <v>0.7300365094589524</v>
       </c>
       <c r="E53" t="n">
-        <v>0.52124645892351</v>
+        <v>0.47875354107649</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1393159105373138</v>
+        <v>0.8606840894626863</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03363274406239369</v>
+        <v>0.9663672559376062</v>
       </c>
       <c r="H53" t="n">
-        <v>0.33206106870229</v>
+        <v>0.66793893129771</v>
       </c>
       <c r="I53" t="n">
-        <v>0.666226062704242</v>
+        <v>0.3337739372957579</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4854777542349635</v>
+        <v>0.5145222457650365</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4868464352644326</v>
+        <v>0.5131535647355675</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3125573058477902</v>
+        <v>0.6874426941522098</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2668751443614747</v>
+        <v>0.7331248556385254</v>
       </c>
       <c r="N53" t="n">
-        <v>0.2715903992522706</v>
+        <v>0.7284096007477294</v>
       </c>
       <c r="O53" t="n">
-        <v>0.3189792663476848</v>
+        <v>0.6810207336523152</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8486486486486488</v>
+        <v>0.1513513513513513</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.920252604801217</v>
+        <v>0.07974739519878299</v>
       </c>
       <c r="R53" t="n">
-        <v>0.8322564927036107</v>
+        <v>0.1677435072963893</v>
       </c>
     </row>
     <row r="54">
@@ -3551,52 +3551,52 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.3968885047536733</v>
+        <v>0.6031114952463267</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3578476052168003</v>
+        <v>0.6421523947831997</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4808781869688354</v>
+        <v>0.5191218130311646</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1947114134850328</v>
+        <v>0.8052885865149672</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08668829822100853</v>
+        <v>0.9133117017789915</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3664122137404578</v>
+        <v>0.6335877862595422</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6012957035782922</v>
+        <v>0.3987042964217078</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5518120584865333</v>
+        <v>0.4481879415134667</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7455515645931307</v>
+        <v>0.2544484354068694</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5774292211978224</v>
+        <v>0.4225707788021777</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5479280913761909</v>
+        <v>0.4520719086238091</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8115667304443177</v>
+        <v>0.1884332695556823</v>
       </c>
       <c r="O54" t="n">
-        <v>0.6044657097288708</v>
+        <v>0.3955342902711292</v>
       </c>
       <c r="P54" t="n">
-        <v>0.6540540540540541</v>
+        <v>0.3459459459459459</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.4747281954818112</v>
+        <v>0.5252718045181889</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6345774520226528</v>
+        <v>0.3654225479773472</v>
       </c>
     </row>
     <row r="55">
@@ -3609,52 +3609,52 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.531028522039758</v>
+        <v>0.468971477960242</v>
       </c>
       <c r="D55" t="n">
-        <v>0.20572709159345</v>
+        <v>0.7942729084065501</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1635977337110422</v>
+        <v>0.8364022662889579</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1450432262241002</v>
+        <v>0.8549567737758998</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02923691667940711</v>
+        <v>0.9707630833205929</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1450381679389312</v>
+        <v>0.8549618320610688</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6669938752799279</v>
+        <v>0.333006124720072</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4128968420797303</v>
+        <v>0.5871031579202697</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6363122142556044</v>
+        <v>0.3636877857443956</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2351797996823476</v>
+        <v>0.7648202003176524</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2730956101663956</v>
+        <v>0.7269043898336044</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1853990986168067</v>
+        <v>0.8146009013831933</v>
       </c>
       <c r="O55" t="n">
-        <v>0.3062200956937774</v>
+        <v>0.6937799043062226</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8135135135135136</v>
+        <v>0.1864864864864864</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7606297649110169</v>
+        <v>0.2393702350889831</v>
       </c>
       <c r="R55" t="n">
-        <v>0.6305048014018086</v>
+        <v>0.3694951985981914</v>
       </c>
     </row>
     <row r="56">
@@ -3667,52 +3667,52 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.4426966292134831</v>
+        <v>0.5573033707865168</v>
       </c>
       <c r="D56" t="n">
-        <v>0.364056168480801</v>
+        <v>0.6359438315191991</v>
       </c>
       <c r="E56" t="n">
-        <v>0.519121813031158</v>
+        <v>0.480878186968842</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2198430890435371</v>
+        <v>0.7801569109564629</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05854652020340236</v>
+        <v>0.9414534797965977</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3893129770992367</v>
+        <v>0.6106870229007634</v>
       </c>
       <c r="I56" t="n">
-        <v>0.494607642948488</v>
+        <v>0.5053923570515121</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4135036018171124</v>
+        <v>0.5864963981828876</v>
       </c>
       <c r="K56" t="n">
-        <v>0.735110925710282</v>
+        <v>0.264889074289718</v>
       </c>
       <c r="L56" t="n">
-        <v>0.4694606102195411</v>
+        <v>0.530539389780459</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4809947743099539</v>
+        <v>0.519005225690046</v>
       </c>
       <c r="N56" t="n">
-        <v>0.7268705258609758</v>
+        <v>0.2731294741390242</v>
       </c>
       <c r="O56" t="n">
-        <v>0.2719298245614013</v>
+        <v>0.7280701754385986</v>
       </c>
       <c r="P56" t="n">
-        <v>0.9621621621621622</v>
+        <v>0.03783783783783776</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6011668472205318</v>
+        <v>0.3988331527794682</v>
       </c>
       <c r="R56" t="n">
-        <v>0.8923016608179017</v>
+        <v>0.1076983391820983</v>
       </c>
     </row>
     <row r="57">
@@ -3725,52 +3725,52 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.2250648228176318</v>
+        <v>0.7749351771823682</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2310059613456673</v>
+        <v>0.7689940386543328</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3661473087818651</v>
+        <v>0.6338526912181349</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1009699431123489</v>
+        <v>0.899030056887651</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02002060777474121</v>
+        <v>0.9799793922252589</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3473282442748091</v>
+        <v>0.6526717557251909</v>
       </c>
       <c r="I57" t="n">
-        <v>0.738008678406056</v>
+        <v>0.261991321593944</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5395914633866975</v>
+        <v>0.4604085366133025</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7130046245980787</v>
+        <v>0.2869953754019214</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2748213964812408</v>
+        <v>0.7251786035187592</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09810691825984054</v>
+        <v>0.9018930817401595</v>
       </c>
       <c r="N57" t="n">
-        <v>0.4489855219034894</v>
+        <v>0.5510144780965107</v>
       </c>
       <c r="O57" t="n">
-        <v>0.4465709728867588</v>
+        <v>0.5534290271132412</v>
       </c>
       <c r="P57" t="n">
-        <v>0.7432432432432432</v>
+        <v>0.2567567567567569</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.9286720504981687</v>
+        <v>0.07132794950183131</v>
       </c>
       <c r="R57" t="n">
-        <v>0.6701067261984177</v>
+        <v>0.3298932738015823</v>
       </c>
     </row>
     <row r="58">
@@ -3783,52 +3783,52 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09759684675696317</v>
+        <v>0.9024031532430368</v>
       </c>
       <c r="E58" t="n">
-        <v>0.480169971671385</v>
+        <v>0.5198300283286149</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1191002115162377</v>
+        <v>0.8808997884837623</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04250408447879071</v>
+        <v>0.9574959155212093</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2061068702290076</v>
+        <v>0.7938931297709925</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8822231880525793</v>
+        <v>0.1177768119474208</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2957514015381705</v>
+        <v>0.7042485984618294</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8913662069887891</v>
+        <v>0.1086337930112111</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2676889834542561</v>
+        <v>0.7323110165457438</v>
       </c>
       <c r="M58" t="n">
-        <v>0.5200896391260326</v>
+        <v>0.4799103608739675</v>
       </c>
       <c r="N58" t="n">
-        <v>0.8904877980316525</v>
+        <v>0.1095122019683475</v>
       </c>
       <c r="O58" t="n">
-        <v>0.548644338118026</v>
+        <v>0.451355661881974</v>
       </c>
       <c r="P58" t="n">
-        <v>0.5297297297297295</v>
+        <v>0.4702702702702704</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.649882115054628</v>
+        <v>0.350117884945372</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4785937962460347</v>
+        <v>0.5214062037539654</v>
       </c>
     </row>
     <row r="59">
@@ -3841,52 +3841,52 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5805818211232036</v>
+        <v>0.4194181788767965</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9752124645892349</v>
+        <v>0.02478753541076505</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6189883745024156</v>
+        <v>0.3810116254975843</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6069524720985207</v>
+        <v>0.3930475279014794</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8473282442748091</v>
+        <v>0.1526717557251909</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1640519567307222</v>
+        <v>0.8359480432692777</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4130863387970654</v>
+        <v>0.5869136612029346</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9769674186492626</v>
+        <v>0.02303258135073748</v>
       </c>
       <c r="L59" t="n">
-        <v>0.4549543398773075</v>
+        <v>0.5450456601226924</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.9374006763265992</v>
+        <v>0.06259932367340088</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.15125426093242</v>
+        <v>0.84874573906758</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2524919300672215</v>
+        <v>0.7475080699327785</v>
       </c>
     </row>
     <row r="60">
@@ -3899,52 +3899,52 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.8751944684528954</v>
+        <v>0.1248055315471046</v>
       </c>
       <c r="D60" t="n">
-        <v>0.366927428109364</v>
+        <v>0.633072571890636</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8413597733711037</v>
+        <v>0.1586402266288963</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3190755576299057</v>
+        <v>0.6809244423700943</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1766310565935723</v>
+        <v>0.8233689434064277</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5343511450381678</v>
+        <v>0.4656488549618321</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4581173401898652</v>
+        <v>0.5418826598101348</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3174141800675202</v>
+        <v>0.6825858199324798</v>
       </c>
       <c r="K60" t="n">
-        <v>0.88746102512212</v>
+        <v>0.1125389748778799</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3784404362870835</v>
+        <v>0.6215595637129165</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7328222044030767</v>
+        <v>0.2671777955969233</v>
       </c>
       <c r="N60" t="n">
-        <v>0.8785361142741208</v>
+        <v>0.1214638857258792</v>
       </c>
       <c r="O60" t="n">
-        <v>0.7392344497607595</v>
+        <v>0.2607655502392405</v>
       </c>
       <c r="P60" t="n">
-        <v>0.3459459459459459</v>
+        <v>0.6540540540540541</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.3822357860178367</v>
+        <v>0.6177642139821633</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3106562629358565</v>
+        <v>0.6893437370641434</v>
       </c>
     </row>
     <row r="61">
@@ -3957,52 +3957,52 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.7037165082108903</v>
+        <v>0.2962834917891098</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3586430941250868</v>
+        <v>0.6413569058749132</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9553824362606228</v>
+        <v>0.04461756373937711</v>
       </c>
       <c r="F61" t="n">
-        <v>0.405260764340956</v>
+        <v>0.594739235659044</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3127928018368356</v>
+        <v>0.6872071981631643</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6870229007633588</v>
+        <v>0.3129770992366412</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2877963259803079</v>
+        <v>0.7122036740196921</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3815431846943802</v>
+        <v>0.6184568153056198</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9373404248747326</v>
+        <v>0.06265957512526732</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3821142531968357</v>
+        <v>0.6178857468031642</v>
       </c>
       <c r="M61" t="n">
-        <v>0.8184800644918487</v>
+        <v>0.1815199355081513</v>
       </c>
       <c r="N61" t="n">
-        <v>0.9075000085132068</v>
+        <v>0.09249999148679325</v>
       </c>
       <c r="O61" t="n">
-        <v>0.7185007974481601</v>
+        <v>0.2814992025518399</v>
       </c>
       <c r="P61" t="n">
-        <v>0.1324324324324349</v>
+        <v>0.867567567567565</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.3509005980796051</v>
+        <v>0.6490994019203948</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1724980239721036</v>
+        <v>0.8275019760278964</v>
       </c>
     </row>
     <row r="62">
@@ -4015,52 +4015,52 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5583405358686258</v>
+        <v>0.4416594641313742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1692149542272468</v>
+        <v>0.8307850457727533</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8066572237960326</v>
+        <v>0.1933427762039674</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2167300608732749</v>
+        <v>0.7832699391267252</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08205232746121684</v>
+        <v>0.9179476725387832</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4427480916030533</v>
+        <v>0.5572519083969467</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6324636714109626</v>
+        <v>0.3675363285890375</v>
       </c>
       <c r="J62" t="n">
-        <v>0.339509528318242</v>
+        <v>0.660490471681758</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1499071381876222</v>
+        <v>0.8500928618123778</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2435285177487271</v>
+        <v>0.7564714822512728</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3983681231097814</v>
+        <v>0.6016318768902187</v>
       </c>
       <c r="N62" t="n">
-        <v>0.4503546595697726</v>
+        <v>0.5496453404302275</v>
       </c>
       <c r="O62" t="n">
-        <v>0.5071770334928188</v>
+        <v>0.4928229665071812</v>
       </c>
       <c r="P62" t="n">
-        <v>0.4756756756756757</v>
+        <v>0.5243243243243243</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7173279285905487</v>
+        <v>0.2826720714094513</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4591806553094696</v>
+        <v>0.5408193446905304</v>
       </c>
     </row>
     <row r="63">
@@ -4073,52 +4073,52 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.439066551426102</v>
+        <v>0.560933448573898</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08710014294694625</v>
+        <v>0.9128998570530539</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6451841359773346</v>
+        <v>0.3548158640226654</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2141501720131565</v>
+        <v>0.7858498279868434</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02508164732940611</v>
+        <v>0.9749183526705939</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4198473282442748</v>
+        <v>0.5801526717557252</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7332867798942144</v>
+        <v>0.2667132201057856</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4826202881967802</v>
+        <v>0.5173797118032198</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3019296878163593</v>
+        <v>0.6980703121836407</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2518480678772761</v>
+        <v>0.7481519321227239</v>
       </c>
       <c r="M63" t="n">
-        <v>0.4225740856240489</v>
+        <v>0.577425914375951</v>
       </c>
       <c r="N63" t="n">
-        <v>0.6101193191943642</v>
+        <v>0.3898806808056358</v>
       </c>
       <c r="O63" t="n">
-        <v>0.4688995215311048</v>
+        <v>0.5311004784688952</v>
       </c>
       <c r="P63" t="n">
-        <v>0.4270270270270269</v>
+        <v>0.5729729729729731</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.6948516415123956</v>
+        <v>0.3051483584876043</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4546519427808586</v>
+        <v>0.5453480572191415</v>
       </c>
     </row>
     <row r="64">
@@ -4131,52 +4131,52 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.5146067415730337</v>
+        <v>0.4853932584269663</v>
       </c>
       <c r="D64" t="n">
-        <v>0.319723062723363</v>
+        <v>0.680276937276637</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8491501416430584</v>
+        <v>0.1508498583569416</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2302030316689091</v>
+        <v>0.7697969683310909</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07505013645468131</v>
+        <v>0.9249498635453187</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5076335877862593</v>
+        <v>0.4923664122137406</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5319323778166539</v>
+        <v>0.4680676221833461</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2459713022749111</v>
+        <v>0.754028697725089</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6782527577127825</v>
+        <v>0.3217472422872175</v>
       </c>
       <c r="L64" t="n">
-        <v>0.36304927808354</v>
+        <v>0.63695072191646</v>
       </c>
       <c r="M64" t="n">
-        <v>0.616657927936338</v>
+        <v>0.3833420720636621</v>
       </c>
       <c r="N64" t="n">
-        <v>0.7523323097306177</v>
+        <v>0.2476676902693824</v>
       </c>
       <c r="O64" t="n">
-        <v>0.5629984051036718</v>
+        <v>0.4370015948963282</v>
       </c>
       <c r="P64" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.3827132212084737</v>
+        <v>0.6172867787915263</v>
       </c>
       <c r="R64" t="n">
-        <v>0.7002126071255269</v>
+        <v>0.2997873928744731</v>
       </c>
     </row>
     <row r="65">
@@ -4189,52 +4189,52 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5714779602420051</v>
+        <v>0.4285220397579948</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1963124669718094</v>
+        <v>0.8036875330281906</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6430594900849832</v>
+        <v>0.3569405099150167</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1793774368351807</v>
+        <v>0.8206225631648193</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04914554546865663</v>
+        <v>0.9508544545313433</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3854961832061066</v>
+        <v>0.6145038167938933</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7464348473007744</v>
+        <v>0.2535651526992256</v>
       </c>
       <c r="J65" t="n">
-        <v>0.3585811750200053</v>
+        <v>0.6414188249799947</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8548633416184455</v>
+        <v>0.1451366583815544</v>
       </c>
       <c r="L65" t="n">
-        <v>0.3454758435313631</v>
+        <v>0.6545241564686369</v>
       </c>
       <c r="M65" t="n">
-        <v>0.7484357741451474</v>
+        <v>0.2515642258548526</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8367431332609482</v>
+        <v>0.1632568667390519</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8253588516746345</v>
+        <v>0.1746411483253655</v>
       </c>
       <c r="P65" t="n">
-        <v>0.2756756756756756</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.04784947840023317</v>
+        <v>0.9521505215997669</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3775496152526084</v>
+        <v>0.6224503847473916</v>
       </c>
     </row>
     <row r="66">
@@ -4247,52 +4247,52 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.6283491789109766</v>
+        <v>0.3716508210890233</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1409817940176556</v>
+        <v>0.8590182059823445</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5502832861189769</v>
+        <v>0.4497167138810231</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1896633390596646</v>
+        <v>0.8103366609403354</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03106987214966541</v>
+        <v>0.9689301278503346</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2786259541984734</v>
+        <v>0.7213740458015266</v>
       </c>
       <c r="I66" t="n">
-        <v>0.836036257702795</v>
+        <v>0.1639637422972051</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4374581893677054</v>
+        <v>0.5625418106322946</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5881886985035708</v>
+        <v>0.4118113014964292</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2451701131011446</v>
+        <v>0.7548298868988554</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3806880678667243</v>
+        <v>0.6193119321332757</v>
       </c>
       <c r="N66" t="n">
-        <v>0.6925182079032217</v>
+        <v>0.3074817920967782</v>
       </c>
       <c r="O66" t="n">
-        <v>0.6403508771929773</v>
+        <v>0.3596491228070227</v>
       </c>
       <c r="P66" t="n">
-        <v>0.2108108108108107</v>
+        <v>0.7891891891891893</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1902274903185532</v>
+        <v>0.8097725096814469</v>
       </c>
       <c r="R66" t="n">
-        <v>0.3074406538573239</v>
+        <v>0.692559346142676</v>
       </c>
     </row>
     <row r="67">
@@ -4305,52 +4305,52 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2947277441659464</v>
+        <v>0.7052722558340536</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2053039022078969</v>
+        <v>0.7946960977921032</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7960339943342761</v>
+        <v>0.2039660056657238</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1522194034438324</v>
+        <v>0.8477805965561676</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03586413432304435</v>
+        <v>0.9641358656769556</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4389312977099236</v>
+        <v>0.5610687022900763</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4510281710629475</v>
+        <v>0.5489718289370525</v>
       </c>
       <c r="J67" t="n">
-        <v>0.02769747675697489</v>
+        <v>0.9723025232430251</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8910412545882631</v>
+        <v>0.1089587454117369</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2675684626658725</v>
+        <v>0.7324315373341276</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8464779364510776</v>
+        <v>0.1535220635489224</v>
       </c>
       <c r="N67" t="n">
-        <v>0.9046879398706655</v>
+        <v>0.09531206012933446</v>
       </c>
       <c r="O67" t="n">
-        <v>0.6275917065390699</v>
+        <v>0.3724082934609301</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1837837837837837</v>
+        <v>0.8162162162162162</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3462915381320529</v>
+        <v>0.6537084618679472</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2628381219565145</v>
+        <v>0.7371618780434855</v>
       </c>
     </row>
     <row r="68">
@@ -4363,52 +4363,52 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.6259291270527225</v>
+        <v>0.3740708729472774</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1820740190376298</v>
+        <v>0.8179259809623702</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7407932011331425</v>
+        <v>0.2592067988668574</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2086385093540012</v>
+        <v>0.7913614906459988</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05130056642399829</v>
+        <v>0.9486994335760016</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4007633587786257</v>
+        <v>0.5992366412213742</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6812020915487726</v>
+        <v>0.3187979084512274</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5734226204346874</v>
+        <v>0.4265773795653126</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3137288194714181</v>
+        <v>0.6862711805285819</v>
       </c>
       <c r="L68" t="n">
-        <v>0.4485962653125186</v>
+        <v>0.5514037346874815</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4956223272141028</v>
+        <v>0.5043776727858972</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4780587479730138</v>
+        <v>0.5219412520269863</v>
       </c>
       <c r="O68" t="n">
-        <v>0.5438596491228026</v>
+        <v>0.4561403508771974</v>
       </c>
       <c r="P68" t="n">
-        <v>0.5378378378378378</v>
+        <v>0.4621621621621622</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6239417422535146</v>
+        <v>0.3760582577464854</v>
       </c>
       <c r="R68" t="n">
-        <v>0.6322085174681754</v>
+        <v>0.3677914825318246</v>
       </c>
     </row>
     <row r="69">
@@ -4421,52 +4421,52 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.4720829732065687</v>
+        <v>0.5279170267934313</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09455684705694552</v>
+        <v>0.9054431529430546</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6961756373937655</v>
+        <v>0.3038243626062345</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1308481434440839</v>
+        <v>0.8691518565559161</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02008635002288411</v>
+        <v>0.9799136499771159</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4045801526717558</v>
+        <v>0.5954198473282443</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8095837996551145</v>
+        <v>0.1904162003448855</v>
       </c>
       <c r="J69" t="n">
-        <v>0.529931789651604</v>
+        <v>0.470068210348396</v>
       </c>
       <c r="K69" t="n">
-        <v>0.413315454809258</v>
+        <v>0.5866845451907421</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2185321717495045</v>
+        <v>0.7814678282504955</v>
       </c>
       <c r="M69" t="n">
-        <v>0.584642647669453</v>
+        <v>0.415357352330547</v>
       </c>
       <c r="N69" t="n">
-        <v>0.5679041750697023</v>
+        <v>0.4320958249302979</v>
       </c>
       <c r="O69" t="n">
-        <v>0.537480063795857</v>
+        <v>0.462519936204143</v>
       </c>
       <c r="P69" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.4324324324324324</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6041622426121918</v>
+        <v>0.3958377573878082</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4968986401164324</v>
+        <v>0.5031013598835675</v>
       </c>
     </row>
     <row r="70">
@@ -4479,52 +4479,52 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.4814174589455488</v>
+        <v>0.5185825410544511</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1828132612554315</v>
+        <v>0.8171867387445686</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5715297450424899</v>
+        <v>0.4284702549575102</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1903121458969163</v>
+        <v>0.8096878541030837</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02019362311344036</v>
+        <v>0.9798063768865596</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2900763358778624</v>
+        <v>0.7099236641221376</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6001708719061979</v>
+        <v>0.3998291280938021</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4361945715830746</v>
+        <v>0.5638054284169254</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7076641259709422</v>
+        <v>0.2923358740290578</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2810717927861903</v>
+        <v>0.7189282072138097</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4768428262601291</v>
+        <v>0.5231571737398708</v>
       </c>
       <c r="N70" t="n">
-        <v>0.761284058126099</v>
+        <v>0.2387159418739011</v>
       </c>
       <c r="O70" t="n">
-        <v>0.6068580542264703</v>
+        <v>0.3931419457735297</v>
       </c>
       <c r="P70" t="n">
-        <v>0.372972972972973</v>
+        <v>0.627027027027027</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.2200972695240822</v>
+        <v>0.7799027304759178</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3497522256048831</v>
+        <v>0.6502477743951169</v>
       </c>
     </row>
     <row r="71">
@@ -4537,52 +4537,52 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.5832324978392394</v>
+        <v>0.4167675021607606</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2211172574756539</v>
+        <v>0.7788827425243461</v>
       </c>
       <c r="E71" t="n">
-        <v>0.691926345609063</v>
+        <v>0.308073654390937</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2703382361185688</v>
+        <v>0.7296617638814312</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05469217034382734</v>
+        <v>0.9453078296561725</v>
       </c>
       <c r="H71" t="n">
-        <v>0.435114503816794</v>
+        <v>0.564885496183206</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3940882051285691</v>
+        <v>0.6059117948714309</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2003183148103921</v>
+        <v>0.7996816851896079</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2889379560221415</v>
+        <v>0.7110620439778584</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2591069029165824</v>
+        <v>0.7408930970834177</v>
       </c>
       <c r="N71" t="n">
-        <v>0.5431046247148527</v>
+        <v>0.4568953752851475</v>
       </c>
       <c r="O71" t="n">
-        <v>0.439393939393936</v>
+        <v>0.5606060606060641</v>
       </c>
       <c r="P71" t="n">
-        <v>0.4027027027027026</v>
+        <v>0.5972972972972974</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7580462043271873</v>
+        <v>0.2419537956728127</v>
       </c>
       <c r="R71" t="n">
-        <v>0.3882204625908969</v>
+        <v>0.6117795374091031</v>
       </c>
     </row>
     <row r="72">
@@ -4595,52 +4595,52 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5223854796888505</v>
+        <v>0.4776145203111495</v>
       </c>
       <c r="D72" t="n">
-        <v>0.165237509685814</v>
+        <v>0.834762490314186</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2174220963172749</v>
+        <v>0.7825779036827252</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2127672765243069</v>
+        <v>0.7872327234756931</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06117217412082097</v>
+        <v>0.938827825879179</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1221374045801527</v>
+        <v>0.8778625954198472</v>
       </c>
       <c r="I72" t="n">
-        <v>0.705914413288828</v>
+        <v>0.294085586711172</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2416132281513965</v>
+        <v>0.7583867718486035</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7186263268342173</v>
+        <v>0.2813736731657827</v>
       </c>
       <c r="L72" t="n">
-        <v>0.4584781972237104</v>
+        <v>0.5415218027762896</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2361832058692455</v>
+        <v>0.7638167941307545</v>
       </c>
       <c r="N72" t="n">
-        <v>0.8339096893565033</v>
+        <v>0.1660903106434966</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1124401913875589</v>
+        <v>0.8875598086124411</v>
       </c>
       <c r="P72" t="n">
-        <v>0.481081081081081</v>
+        <v>0.5189189189189189</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3936312906799699</v>
+        <v>0.6063687093200301</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2558469922118753</v>
+        <v>0.7441530077881247</v>
       </c>
     </row>
   </sheetData>
